--- a/data/number-of-deaths-from-natural-disasters.xlsx
+++ b/data/number-of-deaths-from-natural-disasters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEZ\Desktop\git\taller_interno\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pez/Desktop/rintro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F09056E-83DC-476A-8826-23CEC5F9E4FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B550E8-3F01-AA40-943D-F39C22CAD561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="number-of-deaths-from-natural-d" sheetId="1" r:id="rId1"/>
@@ -52,19 +52,19 @@
     <t>Wildfire</t>
   </si>
   <si>
-    <t>total_deaths</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
     <t>entity</t>
   </si>
+  <si>
+    <t>Total Deaths</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,9 +603,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,7 +643,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -749,7 +749,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -891,38 +891,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -933,7 +933,7 @@
         <v>1267330</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -955,7 +955,7 @@
         <v>46037</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -966,7 +966,7 @@
         <v>6506</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -988,7 +988,7 @@
         <v>22758</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -999,7 +999,7 @@
         <v>42970</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>25641</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>75033</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>11484</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>88233</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>102408</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>52093</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>32167</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>23507</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>11413</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>704224</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>101243</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>155701</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>5832</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>4852</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>215160</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>3004895</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>8377</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>10572</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>3706227</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>73280</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>34296</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>21087</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>270817</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>12025</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>563178</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>21523</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>10195</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>1608235</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>1910322</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>15906</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>10376</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>35490</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>7371</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>120131</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>120370</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>6728</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>15042</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>8965</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>12475</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>41872</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>6026</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>7737</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>10603</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>2013242</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>39188</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>17341</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>17370</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>36746</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>12275</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>1564701</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>16981</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>6966</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>21284</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>8167</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>386568</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>15773</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>20010</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>110555</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>86004</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>14858</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>280073</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>21222</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>35036</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>21404</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>117200</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>11061</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>460342</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>9257</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>54378</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>7303</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>18941</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>10741</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>50934</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>159025</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>12236</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>21170</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>13085</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>22738</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>14708</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>19450</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>49741</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>70593</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>9687</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>30978</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>12580</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>110036</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>241527</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>89657</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>23491</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>16938</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>235332</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>11142</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>317757</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>30969</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>9732</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>21696</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>7959</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>22861</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>8681</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>7341</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>10809</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>11719</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>1261000</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>1502000</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>450520</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>6747</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>31966</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>25641</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>5146</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>29986</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>19450</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>10379</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>152362</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>206142</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>5081</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>70006</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>16180</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>15496</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>66110</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>2</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>2</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>63094</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>2</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>7235</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>2</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>2</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>14984</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>5961</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>2</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>5153</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>115618</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>2</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>6486</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>2</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>2</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>2</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>2</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>2</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>6993</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>2</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>2</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>19395</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>2</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>2</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>2</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>2</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>2</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>2</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>10858</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>2</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>2</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>78599</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>15170</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>2</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>24808</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>2</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>12632</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>2</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>276994</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>2</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>25162</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>2</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>7730</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>2</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>2</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>2</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>2</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>2</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>9853</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>2</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>2</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>5160</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>2</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>27049</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>2</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>2</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>2</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>2</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>10088</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>2</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>7739</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>2</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>2</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>9573</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>21869</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>2</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>2</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>21348</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>2</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>2</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>29617</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>2</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>227290</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>2</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>76241</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>2</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>6692</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>2</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>87918</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>2</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>2</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>226733</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>2</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>20946</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>2</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>2</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>2</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>2</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>9550</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>2</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>2</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>2</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>4321</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>2</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>3</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>3</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>3</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>3</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>3</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>3</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>3</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>3</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>3</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>3</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>3</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>3</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>3</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>3</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>3</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>3</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>3</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>3</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>3</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>3</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>3</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>3</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>3</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>3</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>3</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>3</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>3</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>3</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>3</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>3</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>3</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>3</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>3</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>3</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>3</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>3</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>3</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>3</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>3</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>3369</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>3</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>74698</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>3</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>3</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>3</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>3</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>3</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>3</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>3</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>57188</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>3</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>3</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>3</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>3</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>7425</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>3</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>3</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>3</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>3</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>4</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>4</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>4</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>4</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>4</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>10298</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>4</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>4</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>4</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>4</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>51170</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>4</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>4</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>4</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>4</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>4</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>4</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>4</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>4</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>4</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>5772</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>4</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>4082</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>4</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>5091</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>62707</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>4</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>11231</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>4</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>4</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>4</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>5006</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>101000</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>4</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>4</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>4415</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>4</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>4738</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>4</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>4</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>4</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>6277</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>4</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>4</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>4</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>4</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>4</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>4</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>9695</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>4</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>9164</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>4</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>12852</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>4</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>4</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>29965</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>10655</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>59932</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>4</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>4</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>4</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>4</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>4</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>304495</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>4</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>10811</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>4</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>4</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>4</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>11861</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>4</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>4</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>4</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>15298</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>4</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>4</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>4</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>4</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>4</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>4</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>3656</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>4</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>5468</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>4</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>17165</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>4</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>4</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>4</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>4</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>4</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>4604</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>4</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>146297</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>4</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>4</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>4</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>4</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>4</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>4581</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>4</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>4</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>24935</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>4</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>12270</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>4</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>4</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>4</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>4</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>4</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>6547</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>4</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>5251</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>4</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>4329</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>4</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>6035</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>4</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>140985</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>4</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>4</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>4</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>4</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>4</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>8603</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>4</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>4</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>4</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>4</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>4</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>4</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>5</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>5</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>5</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>5</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>5</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>5</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>5</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>5</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>5</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>5</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>18053</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>5</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>142000</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>5</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>5</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>5</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>5</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>500010</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>5</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>5</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>5</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>5</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>5</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>5</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>3808</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>5</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>5666</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>5</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>5</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>7125</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>5</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>34436</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>5</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>5</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>3613</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>5</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>5</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>5</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>2003396</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>5</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>10577</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>5</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>5</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>5</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>5</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>5</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>5</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>5</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>5</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>7306</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>5</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>5</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>5</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>5</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>5</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>5</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>29431</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>5</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>5</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>5</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>5</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>5897</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>5</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>5</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>10466</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>5</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>5</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>4648</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>5</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>5</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>5</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>4376</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>5</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>5</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>6766</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>5</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>8504</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>5</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>4716</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>5</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>5</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>5852</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>5</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>5315</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>5</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>5</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>6771</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>5</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>7956</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>5</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>8047</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>5</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>7685</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>5</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>10653</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>5</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>34807</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>5</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>5</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>5014</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>5</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>5</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>5</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>6982</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>5</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>5</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>5843</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>5</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>8607</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>5</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>5</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>3627</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>5</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>8356</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>5</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>6163</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>5</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>5</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>9836</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>5</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>5</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>5</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>4720</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>5</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>5</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>5</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>6</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>6</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>6</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>6</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>6</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>6</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>6</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>6</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>6</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>6</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>6</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>6</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>6</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>6</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>6</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>6</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>6</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>6</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>6</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>6</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>6</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>6</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>6</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>6</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>6</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>6</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>6</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>6</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>6</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>6</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>6</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>6</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>6</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>6</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>6</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>6</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>6</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>6</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>6</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>6</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>6</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>6</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>6</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>6</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>6</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>6</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>6</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>6</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>6</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>6</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>6</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>6</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>6</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>6</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>6</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>6</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>6</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>6</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>6</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>6</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>6</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>6</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>6</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>6</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>6</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>6</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>6</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>6</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>6</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>6</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>6</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>6</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>6</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>6</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>6</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>6</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>6</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>6</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>6</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>6</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>6</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>7</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>7</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>7</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>7</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>7</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>7</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>7</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>7</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>7</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>7</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>7</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>7</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>7</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>7</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>7</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>7</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>7</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>7</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>7</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>7</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>7</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>7</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>7</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>7</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>7</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>7</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>7</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>7</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>7</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>7</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>7</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>7</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>8</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>8</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>38690</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>8</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>8</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>8</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>8</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>8</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>8</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>8</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>8</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>8</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>8</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>8</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>8</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>8</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>8</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>8</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>8</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>8</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>8</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>8</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>8</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>8</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>8</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>8</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>8</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>8</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>8</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>8</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>8</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>8</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>8</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>8</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>8</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>8</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>21800</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>8</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>8</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>8</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>8</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>8</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>8</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>8</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>8</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>8</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>8</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>8</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>8</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>8</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>8</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>8</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>8</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>8</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>8</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>8</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>8</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>8</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>9</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>9</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>9</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>9</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>9</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>9</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>9</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>9</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>9</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>9</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>9</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>9</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>9</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>9</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>9</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>9</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>9</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>9</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>9</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>9</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>9</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>9</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>9</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>9</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>9</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>9</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>9</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>9</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>9</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>9</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>9</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>9</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>9</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>9</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>9</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>9</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>9</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>9</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>9</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>9</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>9</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>9</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>9</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>9</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>9</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>9</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>9</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>9</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>9</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>9</v>
       </c>
